--- a/ResultadoEleicoesDistritos/AVEIRO_ANADIA.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_ANADIA.xlsx
@@ -597,64 +597,64 @@
         <v>7674</v>
       </c>
       <c r="H2" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I2" t="n">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="J2" t="n">
-        <v>3068</v>
+        <v>3244</v>
       </c>
       <c r="K2" t="n">
         <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>888</v>
+        <v>843</v>
       </c>
       <c r="M2" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N2" t="n">
-        <v>585</v>
+        <v>541</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="S2" t="n">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="T2" t="n">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="U2" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="V2" t="n">
-        <v>4937</v>
+        <v>4837</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>4922</v>
+        <v>4935</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
